--- a/feature/harmonize-profiles-descriptions/ig/StructureDefinition-sas-cpts-healthcareservice-aggregator.xlsx
+++ b/feature/harmonize-profiles-descriptions/ig/StructureDefinition-sas-cpts-healthcareservice-aggregator.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-03T16:53:35+00:00</t>
+    <t>2024-12-03T17:09:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Profil dérivé de FrHealthcareService pour le cas d'usage agrégateur CPTS</t>
+    <t>Profil dérivé de FrHealthcareService pour le cas d'usage agrégateur de la plateforme SAS - cas d'usage CPTS</t>
   </si>
   <si>
     <t>Purpose</t>
